--- a/evolutdoc/thesis/assets/mutation_binär_flippen.xlsx
+++ b/evolutdoc/thesis/assets/mutation_binär_flippen.xlsx
@@ -89,7 +89,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,18 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G9"/>
+  <dimension ref="A4:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -389,29 +391,31 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -419,29 +423,31 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -449,9 +455,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
